--- a/input_data/admin_data/CHL/gpinter_CHL_2016.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2016.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>year</t>
   </si>
@@ -204,6 +204,60 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -393,10 +447,118 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -644,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J81"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -652,31 +814,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
@@ -684,31 +846,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="D2">
-        <v>1362021.24142227</v>
+        <v>3658635.2901722598</v>
       </c>
       <c r="E2">
-        <v>0.65000000000000002</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="F2">
-        <v>53300.746115644601</v>
+        <v>18026.753475452399</v>
       </c>
       <c r="G2">
-        <v>0.99985899729311201</v>
+        <v>0.99999387059350997</v>
       </c>
       <c r="H2">
-        <v>3890940.5506868302</v>
+        <v>6903043.1413384397</v>
       </c>
       <c r="I2">
-        <v>92090.723233294804</v>
+        <v>55108.916631017302</v>
       </c>
       <c r="J2">
-        <v>72.999738920067003</v>
+        <v>382.93324145906399</v>
       </c>
     </row>
     <row r="3">
@@ -716,29 +878,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.66000000000000003</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F3">
-        <v>131959.35300806101</v>
+        <v>92882.727199784102</v>
       </c>
       <c r="G3">
-        <v>0.99918286449552696</v>
+        <v>0.99984324361853105</v>
       </c>
       <c r="H3">
-        <v>4002671.4279648699</v>
+        <v>7034734.18412128</v>
       </c>
       <c r="I3">
-        <v>174057.65684971199</v>
+        <v>132063.439234791</v>
       </c>
       <c r="J3">
-        <v>30.332608767188901</v>
+        <v>75.737808268593</v>
       </c>
     </row>
     <row r="4">
@@ -746,29 +908,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.67000000000000004</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F4">
-        <v>217307.70057041399</v>
+        <v>171959.412327153</v>
       </c>
       <c r="G4">
-        <v>0.99790492806137898</v>
+        <v>0.99948227995650796</v>
       </c>
       <c r="H4">
-        <v>4118690.0270895702</v>
+        <v>7170080.6693151304</v>
       </c>
       <c r="I4">
-        <v>262937.15996090701</v>
+        <v>213309.51702793501</v>
       </c>
       <c r="J4">
-        <v>18.953263120811499</v>
+        <v>41.696354810018001</v>
       </c>
     </row>
     <row r="5">
@@ -776,29 +938,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>309794.99356756703</v>
+        <v>255398.47719818199</v>
       </c>
       <c r="G5">
-        <v>0.99597443570219701</v>
+        <v>0.99889924967305499</v>
       </c>
       <c r="H5">
-        <v>4239182.3041873397</v>
+        <v>7309216.09236087</v>
       </c>
       <c r="I5">
-        <v>359188.95396458003</v>
+        <v>298988.64560450899</v>
       </c>
       <c r="J5">
-        <v>13.6838308952942</v>
+        <v>28.618871077642002</v>
       </c>
     </row>
     <row r="6">
@@ -806,29 +968,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.68999999999999995</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F6">
-        <v>409891.32808759401</v>
+        <v>343341.12646891898</v>
       </c>
       <c r="G6">
-        <v>0.99333725984149202</v>
+        <v>0.998082036089598</v>
       </c>
       <c r="H6">
-        <v>4364343.3800009796</v>
+        <v>7452281.9586212104</v>
       </c>
       <c r="I6">
-        <v>463293.13292127597</v>
+        <v>389241.486155327</v>
       </c>
       <c r="J6">
-        <v>10.647562124242601</v>
+        <v>21.705182933556401</v>
       </c>
     </row>
     <row r="7">
@@ -836,29 +998,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.69999999999999996</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F7">
-        <v>518086.55671993602</v>
+        <v>435927.34322685102</v>
       </c>
       <c r="G7">
-        <v>0.98993574803806805</v>
+        <v>0.99701813806401196</v>
       </c>
       <c r="H7">
-        <v>4494378.3882369697</v>
+        <v>7599428.6351309102</v>
       </c>
       <c r="I7">
-        <v>575748.71130882704</v>
+        <v>484207.05670351401</v>
       </c>
       <c r="J7">
-        <v>8.6749565877396702</v>
+        <v>17.4327872596335</v>
       </c>
     </row>
     <row r="8">
@@ -866,29 +1028,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.70999999999999996</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F8">
-        <v>634888.49287495494</v>
+        <v>533295.02779895498</v>
       </c>
       <c r="G8">
-        <v>0.98570858407175799</v>
+        <v>0.99569467448182802</v>
       </c>
       <c r="H8">
-        <v>4629503.5495103598</v>
+        <v>7750816.3282889398</v>
       </c>
       <c r="I8">
-        <v>697071.42712159106</v>
+        <v>584021.81539251294</v>
       </c>
       <c r="J8">
-        <v>7.2918372304192403</v>
+        <v>14.533824476628901</v>
       </c>
     </row>
     <row r="9">
@@ -896,29 +1058,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.71999999999999997</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F9">
-        <v>760820.28065535403</v>
+        <v>635579.02397411398</v>
       </c>
       <c r="G9">
-        <v>0.98059066515888105</v>
+        <v>0.994098391253048</v>
       </c>
       <c r="H9">
-        <v>4769947.5538813798</v>
+        <v>7906616.2090040799</v>
       </c>
       <c r="I9">
-        <v>827790.60742810997</v>
+        <v>688818.62649914296</v>
       </c>
       <c r="J9">
-        <v>6.2694800272314701</v>
+        <v>12.4400206910008</v>
       </c>
     </row>
     <row r="10">
@@ -926,29 +1088,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.72999999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F10">
-        <v>896416.71672368795</v>
+        <v>742910.02322321897</v>
       </c>
       <c r="G10">
-        <v>0.97451300218085202</v>
+        <v>0.992215671135114</v>
       </c>
       <c r="H10">
-        <v>4915953.36671298</v>
+        <v>8067011.7108375197</v>
       </c>
       <c r="I10">
-        <v>968444.85923041601</v>
+        <v>798725.599762114</v>
       </c>
       <c r="J10">
-        <v>5.4840045650646703</v>
+        <v>10.8586658662077</v>
       </c>
     </row>
     <row r="11">
@@ -956,29 +1118,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.73999999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F11">
-        <v>1042219.26186863</v>
+        <v>855413.33761877904</v>
       </c>
       <c r="G11">
-        <v>0.96740265155064398</v>
+        <v>0.99003254672829599</v>
       </c>
       <c r="H11">
-        <v>5067780.6170007801</v>
+        <v>8232200.0315437801</v>
       </c>
       <c r="I11">
-        <v>1119576.29468134</v>
+        <v>913864.79394606501</v>
       </c>
       <c r="J11">
-        <v>4.8624898832848196</v>
+        <v>9.6236517125859002</v>
       </c>
     </row>
     <row r="12">
@@ -986,29 +1148,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F12">
-        <v>1198769.42068874</v>
+        <v>973207.53264827805</v>
       </c>
       <c r="G12">
-        <v>0.959182689477862</v>
+        <v>0.98753471701457496</v>
       </c>
       <c r="H12">
-        <v>5225708.7898935499</v>
+        <v>8402393.8742786106</v>
       </c>
       <c r="I12">
-        <v>1281722.9342717</v>
+        <v>1034350.77630421</v>
       </c>
       <c r="J12">
-        <v>4.3592276376979999</v>
+        <v>8.6337123300044194</v>
       </c>
     </row>
     <row r="13">
@@ -1016,29 +1178,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.76000000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F13">
-        <v>1366600.0959987901</v>
+        <v>1096402.9121449201</v>
       </c>
       <c r="G13">
-        <v>0.949772242009853</v>
+        <v>0.98470756783388802</v>
       </c>
       <c r="H13">
-        <v>5390041.5338778002</v>
+        <v>8577823.4718494304</v>
       </c>
       <c r="I13">
-        <v>1455408.8526848301</v>
+        <v>1160289.0309750999</v>
       </c>
       <c r="J13">
-        <v>3.9441249489584198</v>
+        <v>7.8236051517488701</v>
       </c>
     </row>
     <row r="14">
@@ -1046,29 +1208,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.77000000000000002</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F14">
-        <v>1546224.4381066</v>
+        <v>1225099.8493489199</v>
       </c>
       <c r="G14">
-        <v>0.93908658742222695</v>
+        <v>0.98153619671063896</v>
       </c>
       <c r="H14">
-        <v>5561112.5200166199</v>
+        <v>8758738.9460170995</v>
       </c>
       <c r="I14">
-        <v>1641131.53738628</v>
+        <v>1291774.2116451701</v>
       </c>
       <c r="J14">
-        <v>3.5965752338168802</v>
+        <v>7.1494082304164204</v>
       </c>
     </row>
     <row r="15">
@@ -1076,29 +1238,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.78000000000000003</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F15">
-        <v>1738121.6060145299</v>
+        <v>1359386.96097304</v>
       </c>
       <c r="G15">
-        <v>0.92703735142299604</v>
+        <v>0.97800544245613596</v>
       </c>
       <c r="H15">
-        <v>5739293.47377255</v>
+        <v>8945413.0643764008</v>
       </c>
       <c r="I15">
-        <v>1839345.8179643101</v>
+        <v>1428888.2374056401</v>
       </c>
       <c r="J15">
-        <v>3.3020091654764099</v>
+        <v>6.5804758477110399</v>
       </c>
     </row>
     <row r="16">
@@ -1106,29 +1268,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.79000000000000004</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F16">
-        <v>1942718.73653665</v>
+        <v>1499339.12550987</v>
       </c>
       <c r="G16">
-        <v>0.91353282034796202</v>
+        <v>0.97409991997554302</v>
       </c>
       <c r="H16">
-        <v>5925005.2669062698</v>
+        <v>9138144.4701961596</v>
       </c>
       <c r="I16">
-        <v>2050443.5943151801</v>
+        <v>1571698.2360541199</v>
       </c>
       <c r="J16">
-        <v>3.04985233089839</v>
+        <v>6.0947815705727102</v>
       </c>
     </row>
     <row r="17">
@@ -1136,29 +1298,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.80000000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="F17">
-        <v>2160368.2787434598</v>
+        <v>1645015.35348926</v>
       </c>
       <c r="G17">
-        <v>0.89847840319236705</v>
+        <v>0.96980406069633096</v>
       </c>
       <c r="H17">
-        <v>6118733.3505358296</v>
+        <v>9337261.4763577897</v>
       </c>
       <c r="I17">
-        <v>2274728.44599185</v>
+        <v>1720254.3469651199</v>
       </c>
       <c r="J17">
-        <v>2.8322640221761999</v>
+        <v>5.6760938167248396</v>
       </c>
     </row>
     <row r="18">
@@ -1166,29 +1328,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81000000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="F18">
-        <v>2391319.6995979398</v>
+        <v>1796456.5268196899</v>
       </c>
       <c r="G18">
-        <v>0.88177728006144995</v>
+        <v>0.96510215900204099</v>
       </c>
       <c r="H18">
-        <v>6321049.3981434098</v>
+        <v>9543126.5339089502</v>
       </c>
       <c r="I18">
-        <v>2512384.0520397699</v>
+        <v>1874587.4070769399</v>
       </c>
       <c r="J18">
-        <v>2.6433309603923698</v>
+        <v>5.3121945293067503</v>
       </c>
     </row>
     <row r="19">
@@ -1196,29 +1358,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.81999999999999995</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F19">
-        <v>2635684.41546991</v>
+        <v>1953683.0379232899</v>
       </c>
       <c r="G19">
-        <v>0.863331282483495</v>
+        <v>0.95997842499085795</v>
       </c>
       <c r="H19">
-        <v>6532641.9173713904</v>
+        <v>9756141.5096542798</v>
       </c>
       <c r="I19">
-        <v>2763435.21171305</v>
+        <v>2034706.5598046901</v>
       </c>
       <c r="J19">
-        <v>2.4785372175168701</v>
+        <v>4.99371767081767</v>
       </c>
     </row>
     <row r="20">
@@ -1226,29 +1388,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.82999999999999996</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F20">
-        <v>2893392.6852127998</v>
+        <v>2116692.3788023698</v>
       </c>
       <c r="G20">
-        <v>0.84304205990993697</v>
+        <v>0.95441704376963998</v>
       </c>
       <c r="H20">
-        <v>6754359.9588807002</v>
+        <v>9976753.9367928393</v>
       </c>
       <c r="I20">
-        <v>3027700.1804165598</v>
+        <v>2200596.8500692202</v>
       </c>
       <c r="J20">
-        <v>2.3344083205159398</v>
+        <v>4.7133698012545997</v>
       </c>
     </row>
     <row r="21">
@@ -1256,29 +1418,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.83999999999999997</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F21">
-        <v>3164141.18418806</v>
+        <v>2285456.75788522</v>
       </c>
       <c r="G21">
-        <v>0.82081259616636904</v>
+        <v>0.94840224132135997</v>
       </c>
       <c r="H21">
-        <v>6987276.1950347098</v>
+        <v>10205464.439343501</v>
       </c>
       <c r="I21">
-        <v>3304733.1286125202</v>
+        <v>2372216.9018978998</v>
       </c>
       <c r="J21">
-        <v>2.2082694128668199</v>
+        <v>4.4653938011003396</v>
       </c>
     </row>
     <row r="22">
@@ -1286,29 +1448,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.84999999999999998</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F22">
-        <v>3447330.2177824699</v>
+        <v>2459920.8619936402</v>
       </c>
       <c r="G22">
-        <v>0.79654914837196</v>
+        <v>0.94191835672026303</v>
       </c>
       <c r="H22">
-        <v>7232779.0661295196</v>
+        <v>10442835.5768419</v>
       </c>
       <c r="I22">
-        <v>3593756.0245742202</v>
+        <v>2549496.8223937801</v>
       </c>
       <c r="J22">
-        <v>2.0980813003699099</v>
+        <v>4.2451916800195404</v>
       </c>
     </row>
     <row r="23">
@@ -1316,29 +1478,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.85999999999999999</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F23">
-        <v>3741990.3589491099</v>
+        <v>2639999.93714337</v>
       </c>
       <c r="G23">
-        <v>0.77016368597769203</v>
+        <v>0.93494992007602495</v>
       </c>
       <c r="H23">
-        <v>7492709.28338347</v>
+        <v>10689502.4129184</v>
       </c>
       <c r="I23">
-        <v>3893580.6391824102</v>
+        <v>2732336.5437792302</v>
       </c>
       <c r="J23">
-        <v>2.0023325996723602</v>
+        <v>4.0490540406925302</v>
       </c>
     </row>
     <row r="24">
@@ -1346,29 +1508,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.87</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F24">
-        <v>4046700.4386823098</v>
+        <v>2825578.4425788401</v>
       </c>
       <c r="G24">
-        <v>0.74157690244767405</v>
+        <v>0.92748173500953701</v>
       </c>
       <c r="H24">
-        <v>7769565.3329373999</v>
+        <v>10946185.1828906</v>
       </c>
       <c r="I24">
-        <v>4202524.8036609096</v>
+        <v>2920604.9123368701</v>
       </c>
       <c r="J24">
-        <v>1.9199754097605799</v>
+        <v>3.87396259043522</v>
       </c>
     </row>
     <row r="25">
@@ -1376,29 +1538,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.88</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F25">
-        <v>4359503.9448356004</v>
+        <v>3016509.6484665601</v>
       </c>
       <c r="G25">
-        <v>0.71072184177863096</v>
+        <v>0.91949896361884298</v>
       </c>
       <c r="H25">
-        <v>8066818.7103770999</v>
+        <v>11213704.525242399</v>
       </c>
       <c r="I25">
-        <v>4518335.1490149098</v>
+        <v>3114139.9734221101</v>
       </c>
       <c r="J25">
-        <v>1.85039830504874</v>
+        <v>3.7174436126676702</v>
       </c>
     </row>
     <row r="26">
@@ -1406,29 +1568,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.89000000000000001</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F26">
-        <v>4677842.9313855404</v>
+        <v>3212616.7154491302</v>
       </c>
       <c r="G26">
-        <v>0.67754809226869905</v>
+        <v>0.91098721066607602</v>
       </c>
       <c r="H26">
-        <v>8389408.1250463892</v>
+        <v>11492999.8546155</v>
       </c>
       <c r="I26">
-        <v>4838147.71910745</v>
+        <v>3312751.1051436202</v>
       </c>
       <c r="J26">
-        <v>1.7934351897021701</v>
+        <v>3.57745752842128</v>
       </c>
     </row>
     <row r="27">
@@ -1436,29 +1598,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.90000000000000002</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F27">
-        <v>4998557.3054056503</v>
+        <v>3413696.0385413799</v>
       </c>
       <c r="G27">
-        <v>0.64202626946617602</v>
+        <v>0.90193260193248004</v>
       </c>
       <c r="H27">
-        <v>8744534.1656402908</v>
+        <v>11785151.5956681</v>
       </c>
       <c r="I27">
-        <v>5158564.5503274398</v>
+        <v>3516223.9509122199</v>
       </c>
       <c r="J27">
-        <v>1.7494116064616501</v>
+        <v>3.4523142841691601</v>
       </c>
     </row>
     <row r="28">
@@ -1466,29 +1628,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.91000000000000003</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F28">
-        <v>5318068.7343320297</v>
+        <v>3619523.9963187301</v>
       </c>
       <c r="G28">
-        <v>0.60415193686809798</v>
+        <v>0.89232184909150303</v>
       </c>
       <c r="H28">
-        <v>9142975.2340083793</v>
+        <v>12091408.1751035</v>
       </c>
       <c r="I28">
-        <v>5476043.8921435103</v>
+        <v>3724329.53963853</v>
       </c>
       <c r="J28">
-        <v>1.7192284813815499</v>
+        <v>3.34060726974077</v>
       </c>
     </row>
     <row r="29">
@@ -1496,29 +1658,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.92000000000000004</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F29">
-        <v>5633055.9149576901</v>
+        <v>3829868.7770382799</v>
       </c>
       <c r="G29">
-        <v>0.56394666160803497</v>
+        <v>0.88214228965401897</v>
       </c>
       <c r="H29">
-        <v>9601341.6517414898</v>
+        <v>12413218.891852099</v>
       </c>
       <c r="I29">
-        <v>5788129.44063864</v>
+        <v>3936839.63504727</v>
       </c>
       <c r="J29">
-        <v>1.70446411267579</v>
+        <v>3.2411603672362799</v>
       </c>
     </row>
     <row r="30">
@@ -1526,29 +1688,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93000000000000005</v>
+        <v>0.75</v>
       </c>
       <c r="F30">
-        <v>5942458.9746731604</v>
+        <v>4044509.7466838602</v>
       </c>
       <c r="G30">
-        <v>0.52145004507513504</v>
+        <v>0.871381884959891</v>
       </c>
       <c r="H30">
-        <v>10146086.253327601</v>
+        <v>12752274.062124301</v>
       </c>
       <c r="I30">
-        <v>6097023.9355329797</v>
+        <v>4153551.3368063001</v>
       </c>
       <c r="J30">
-        <v>1.70738852326459</v>
+        <v>3.15298388700388</v>
       </c>
     </row>
     <row r="31">
@@ -1556,29 +1718,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.93999999999999995</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F31">
-        <v>6253305.19373383</v>
+        <v>4263268.02259658</v>
       </c>
       <c r="G31">
-        <v>0.47668551607875698</v>
+        <v>0.86002915092826104</v>
       </c>
       <c r="H31">
-        <v>10820929.9729601</v>
+        <v>13110554.1756793</v>
       </c>
       <c r="I31">
-        <v>6420284.71700997</v>
+        <v>4374325.4477198804</v>
       </c>
       <c r="J31">
-        <v>1.73043368870006</v>
+        <v>3.0752357361041902</v>
       </c>
     </row>
     <row r="32">
@@ -1586,29 +1748,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.94999999999999996</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F32">
-        <v>6598657.8510328699</v>
+        <v>4486053.7483756999</v>
       </c>
       <c r="G32">
-        <v>0.42954759692041999</v>
+        <v>0.84807298394034003</v>
       </c>
       <c r="H32">
-        <v>11701059.0241501</v>
+        <v>13490390.2073297</v>
       </c>
       <c r="I32">
-        <v>6825975.6175595401</v>
+        <v>4599145.4158003498</v>
       </c>
       <c r="J32">
-        <v>1.77324833144949</v>
+        <v>3.0071842568123999</v>
       </c>
     </row>
     <row r="33">
@@ -1616,29 +1778,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.95999999999999996</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F33">
-        <v>7099703.1903920602</v>
+        <v>4712938.4005663004</v>
       </c>
       <c r="G33">
-        <v>0.37943108324232599</v>
+        <v>0.83550232561822102</v>
       </c>
       <c r="H33">
-        <v>12919829.8757977</v>
+        <v>13894537.697853699</v>
       </c>
       <c r="I33">
-        <v>7562184.2247350803</v>
+        <v>4828207.2357721599</v>
       </c>
       <c r="J33">
-        <v>1.8197704226962499</v>
+        <v>2.94816874673859</v>
       </c>
     </row>
     <row r="34">
@@ -1646,29 +1808,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.96999999999999997</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F34">
-        <v>8182726.9383228496</v>
+        <v>4944264.9025378898</v>
       </c>
       <c r="G34">
-        <v>0.32390930432470399</v>
+        <v>0.82230558187953295</v>
       </c>
       <c r="H34">
-        <v>14705711.7594852</v>
+        <v>14326267.7198576</v>
       </c>
       <c r="I34">
-        <v>9186569.4465381596</v>
+        <v>5062056.34313027</v>
       </c>
       <c r="J34">
-        <v>1.7971651590391899</v>
+        <v>2.8975526195014298</v>
       </c>
     </row>
     <row r="35">
@@ -1676,29 +1838,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.97999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F35">
-        <v>10394320.1768797</v>
+        <v>5180815.3889425797</v>
       </c>
       <c r="G35">
-        <v>0.25646124134923098</v>
+        <v>0.80846966782510998</v>
       </c>
       <c r="H35">
-        <v>17465282.915958799</v>
+        <v>14789478.288694</v>
       </c>
       <c r="I35">
-        <v>11929700.5723325</v>
+        <v>5301796.5876430804</v>
       </c>
       <c r="J35">
-        <v>1.68027178485488</v>
+        <v>2.85466228351993</v>
       </c>
     </row>
     <row r="36">
@@ -1706,29 +1868,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.98999999999999999</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F36">
-        <v>13555220.366533</v>
+        <v>5424067.8714845497</v>
       </c>
       <c r="G36">
-        <v>0.168873028995985</v>
+        <v>0.79397848144781602</v>
       </c>
       <c r="H36">
-        <v>23000865.259585001</v>
+        <v>15288829.957170401</v>
       </c>
       <c r="I36">
-        <v>13734934.884018101</v>
+        <v>5549411.1084213397</v>
       </c>
       <c r="J36">
-        <v>1.6968270996444099</v>
+        <v>2.8187018155777399</v>
       </c>
     </row>
     <row r="37">
@@ -1736,29 +1898,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99099999999999999</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F37">
-        <v>13920967.8020606</v>
+        <v>5676591.7573711304</v>
       </c>
       <c r="G37">
-        <v>0.15878879942136001</v>
+        <v>0.77881050030651999</v>
       </c>
       <c r="H37">
-        <v>24030413.079092499</v>
+        <v>15829908.782100899</v>
       </c>
       <c r="I37">
-        <v>14126983.1344661</v>
+        <v>5808259.3014789103</v>
       </c>
       <c r="J37">
-        <v>1.7262027626797301</v>
+        <v>2.7886290680575199</v>
       </c>
     </row>
     <row r="38">
@@ -1766,29 +1928,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99199999999999999</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F38">
-        <v>14348087.2471756</v>
+        <v>5942663.3311775401</v>
       </c>
       <c r="G38">
-        <v>0.14841672686857499</v>
+        <v>0.76293501985871204</v>
       </c>
       <c r="H38">
-        <v>25268341.822170801</v>
+        <v>16419417.575078599</v>
       </c>
       <c r="I38">
-        <v>14616140.456194799</v>
+        <v>6083855.0429743296</v>
       </c>
       <c r="J38">
-        <v>1.7610947986913601</v>
+        <v>2.7629728726067802</v>
       </c>
     </row>
     <row r="39">
@@ -1796,29 +1958,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99299999999999999</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F39">
-        <v>14919381.5398665</v>
+        <v>6229235.1023451602</v>
       </c>
       <c r="G39">
-        <v>0.13768551357198</v>
+        <v>0.74630626470698502</v>
       </c>
       <c r="H39">
-        <v>26790084.874453001</v>
+        <v>17065390.2333351</v>
       </c>
       <c r="I39">
-        <v>15332304.5687986</v>
+        <v>6385101.3835401703</v>
       </c>
       <c r="J39">
-        <v>1.79565652925133</v>
+        <v>2.7395643209726401</v>
       </c>
     </row>
     <row r="40">
@@ -1826,29 +1988,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99399999999999999</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F40">
-        <v>15828020.071967401</v>
+        <v>6547483.8670374602</v>
       </c>
       <c r="G40">
-        <v>0.126428490478282</v>
+        <v>0.72885412510539205</v>
       </c>
       <c r="H40">
-        <v>28699714.925395399</v>
+        <v>17777409.4899881</v>
       </c>
       <c r="I40">
-        <v>16583985.614876701</v>
+        <v>6726278.6789820902</v>
       </c>
       <c r="J40">
-        <v>1.8132220451390899</v>
+        <v>2.7151513239286298</v>
       </c>
     </row>
     <row r="41">
@@ -1856,29 +2018,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.995</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F41">
-        <v>17524498.554244701</v>
+        <v>6915321.5282238498</v>
       </c>
       <c r="G41">
-        <v>0.114252479480422</v>
+        <v>0.71046945938850603</v>
       </c>
       <c r="H41">
-        <v>31122860.787499201</v>
+        <v>18566775.976488601</v>
       </c>
       <c r="I41">
-        <v>18822375.714028802</v>
+        <v>7130297.9048381802</v>
       </c>
       <c r="J41">
-        <v>1.7759629863966</v>
+        <v>2.68487530199587</v>
       </c>
     </row>
     <row r="42">
@@ -1886,29 +2048,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.996</v>
+        <v>0.87</v>
       </c>
       <c r="F42">
-        <v>20253821.9612373</v>
+        <v>7361535.2378713796</v>
       </c>
       <c r="G42">
-        <v>0.10043303589056</v>
+        <v>0.69098050424724999</v>
       </c>
       <c r="H42">
-        <v>34197982.0558668</v>
+        <v>19446505.0589232</v>
       </c>
       <c r="I42">
-        <v>21768905.844788399</v>
+        <v>7633165.7847728301</v>
       </c>
       <c r="J42">
-        <v>1.68847055737512</v>
+        <v>2.6416371627049702</v>
       </c>
     </row>
     <row r="43">
@@ -1916,29 +2078,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.997</v>
+        <v>0.88</v>
       </c>
       <c r="F43">
-        <v>23199133.875977799</v>
+        <v>7927661.2956960797</v>
       </c>
       <c r="G43">
-        <v>0.084450241215451194</v>
+        <v>0.67011708064972197</v>
       </c>
       <c r="H43">
-        <v>38341007.459559597</v>
+        <v>20430949.998435698</v>
       </c>
       <c r="I43">
-        <v>24189960.647384599</v>
+        <v>8268423.3147360403</v>
       </c>
       <c r="J43">
-        <v>1.65269133169066</v>
+        <v>2.5771724139536198</v>
       </c>
     </row>
     <row r="44">
@@ -1946,29 +2108,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.998</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F44">
-        <v>24967342.544562802</v>
+        <v>8632302.8054512404</v>
       </c>
       <c r="G44">
-        <v>0.066689900986010603</v>
+        <v>0.64751733331511796</v>
       </c>
       <c r="H44">
-        <v>45416530.8656471</v>
+        <v>21536634.242408399</v>
       </c>
       <c r="I44">
-        <v>28682170.109925602</v>
+        <v>9041714.2652678806</v>
       </c>
       <c r="J44">
-        <v>1.8190374399912901</v>
+        <v>2.4948886441759401</v>
       </c>
     </row>
     <row r="45">
@@ -1976,29 +2138,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F45">
-        <v>36124088.136379801</v>
+        <v>9473281.2890704107</v>
       </c>
       <c r="G45">
-        <v>0.045631367361399298</v>
+        <v>0.62280398107266999</v>
       </c>
       <c r="H45">
-        <v>62150891.621368602</v>
+        <v>22786126.240122501</v>
       </c>
       <c r="I45">
-        <v>36634182.1129658</v>
+        <v>9947080.8497695606</v>
       </c>
       <c r="J45">
-        <v>1.72048333474134</v>
+        <v>2.4053045132747699</v>
       </c>
     </row>
     <row r="46">
@@ -2006,29 +2168,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99909999999999999</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F46">
-        <v>37019285.926532298</v>
+        <v>10440663.1445712</v>
       </c>
       <c r="G46">
-        <v>0.042941674939663901</v>
+        <v>0.59561602692897797</v>
       </c>
       <c r="H46">
-        <v>64986081.566746399</v>
+        <v>24212686.839050598</v>
       </c>
       <c r="I46">
-        <v>37180327.964625597</v>
+        <v>10970394.164945699</v>
       </c>
       <c r="J46">
-        <v>1.7554655618078701</v>
+        <v>2.3190755705628199</v>
       </c>
     </row>
     <row r="47">
@@ -2036,29 +2198,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99919999999999998</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F47">
-        <v>37270081.480077803</v>
+        <v>11516360.4194926</v>
       </c>
       <c r="G47">
-        <v>0.040211884328924398</v>
+        <v>0.56563109185109794</v>
       </c>
       <c r="H47">
-        <v>68461800.767010897</v>
+        <v>25867973.4233137</v>
       </c>
       <c r="I47">
-        <v>37446520.239435397</v>
+        <v>12091661.065400399</v>
       </c>
       <c r="J47">
-        <v>1.8369104130777401</v>
+        <v>2.2461934570517199</v>
       </c>
     </row>
     <row r="48">
@@ -2066,29 +2228,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99929999999999997</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F48">
-        <v>37864319.454737701</v>
+        <v>12680817.9254201</v>
       </c>
       <c r="G48">
-        <v>0.037462549803103901</v>
+        <v>0.532581443262508</v>
       </c>
       <c r="H48">
-        <v>72892555.128092304</v>
+        <v>27836018.0458728</v>
       </c>
       <c r="I48">
-        <v>39490496.968341701</v>
+        <v>13302120.6931374</v>
       </c>
       <c r="J48">
-        <v>1.92509877842191</v>
+        <v>2.1951279648982598</v>
       </c>
     </row>
     <row r="49">
@@ -2096,29 +2258,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99939999999999996</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F49">
-        <v>41929575.966358602</v>
+        <v>13945959.079709399</v>
       </c>
       <c r="G49">
-        <v>0.034563145904887099</v>
+        <v>0.496223294285841</v>
       </c>
       <c r="H49">
-        <v>78459564.821383104</v>
+        <v>30258334.271328598</v>
       </c>
       <c r="I49">
-        <v>44933028.585523099</v>
+        <v>14675078.3925754</v>
       </c>
       <c r="J49">
-        <v>1.87122247275607</v>
+        <v>2.1696847164389599</v>
       </c>
     </row>
     <row r="50">
@@ -2126,29 +2288,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99950000000000006</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F50">
-        <v>47590532.474968597</v>
+        <v>15484776.4685567</v>
       </c>
       <c r="G50">
-        <v>0.031264149735150598</v>
+        <v>0.45611249550796001</v>
       </c>
       <c r="H50">
-        <v>85164872.068553597</v>
+        <v>33374985.447079301</v>
       </c>
       <c r="I50">
-        <v>49110539.9590244</v>
+        <v>16637980.7433971</v>
       </c>
       <c r="J50">
-        <v>1.78953391860762</v>
+        <v>2.15534176517501</v>
       </c>
     </row>
     <row r="51">
@@ -2156,29 +2318,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99960000000000004</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F51">
-        <v>50695445.133633599</v>
+        <v>18088259.413322698</v>
       </c>
       <c r="G51">
-        <v>0.027658439452120501</v>
+        <v>0.41063657505180201</v>
       </c>
       <c r="H51">
-        <v>94178455.095933706</v>
+        <v>37559236.622999802</v>
       </c>
       <c r="I51">
-        <v>55284001.161164097</v>
+        <v>20200324.513518699</v>
       </c>
       <c r="J51">
-        <v>1.85773011456312</v>
+        <v>2.0764428331526399</v>
       </c>
     </row>
     <row r="52">
@@ -2186,29 +2348,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99970000000000003</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F52">
-        <v>61784425.534442402</v>
+        <v>22619534.213696498</v>
       </c>
       <c r="G52">
-        <v>0.0235994718325339</v>
+        <v>0.35542384431643598</v>
       </c>
       <c r="H52">
-        <v>107143273.074204</v>
+        <v>43345540.659493499</v>
       </c>
       <c r="I52">
-        <v>66827418.783907399</v>
+        <v>25543694.600540798</v>
       </c>
       <c r="J52">
-        <v>1.7341469496139601</v>
+        <v>1.9162879416520899</v>
       </c>
     </row>
     <row r="53">
@@ -2216,29 +2378,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99980000000000002</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F53">
-        <v>74512341.631707996</v>
+        <v>28745136.536786199</v>
       </c>
       <c r="G53">
-        <v>0.018692983097151498</v>
+        <v>0.285606296037832</v>
       </c>
       <c r="H53">
-        <v>127301200.21935301</v>
+        <v>52246463.688969903</v>
       </c>
       <c r="I53">
-        <v>91716859.873618796</v>
+        <v>34764149.7347541</v>
       </c>
       <c r="J53">
-        <v>1.7084579202807</v>
+        <v>1.8175757704997599</v>
       </c>
     </row>
     <row r="54">
@@ -2246,29 +2408,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990000000000001</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F54">
-        <v>110083778.453162</v>
+        <v>41154491.5677936</v>
       </c>
       <c r="G54">
-        <v>0.011959104279091699</v>
+        <v>0.19058685032227601</v>
       </c>
       <c r="H54">
-        <v>162885540.56508699</v>
+        <v>69728777.643185601</v>
       </c>
       <c r="I54">
-        <v>112566850.232491</v>
+        <v>42536540.743251801</v>
       </c>
       <c r="J54">
-        <v>1.4796507065243101</v>
+        <v>1.6943175577402501</v>
       </c>
     </row>
     <row r="55">
@@ -2276,29 +2438,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99990999999999997</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F55">
-        <v>115147207.623099</v>
+        <v>44234081.848536</v>
       </c>
       <c r="G55">
-        <v>0.0111326351550535</v>
+        <v>0.17896050952315001</v>
       </c>
       <c r="H55">
-        <v>168476506.15757099</v>
+        <v>72750137.298733801</v>
       </c>
       <c r="I55">
-        <v>117945948.798206</v>
+        <v>46392062.259372696</v>
       </c>
       <c r="J55">
-        <v>1.4631401806028199</v>
+        <v>1.64466253753929</v>
       </c>
     </row>
     <row r="56">
@@ -2306,29 +2468,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992000000000003</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F56">
-        <v>120867549.974362</v>
+        <v>48568142.268861398</v>
       </c>
       <c r="G56">
-        <v>0.010266672531192299</v>
+        <v>0.16628035460746601</v>
       </c>
       <c r="H56">
-        <v>174792825.827456</v>
+        <v>76044896.678654</v>
       </c>
       <c r="I56">
-        <v>124068931.874522</v>
+        <v>49868185.221481703</v>
       </c>
       <c r="J56">
-        <v>1.44615180720162</v>
+        <v>1.5657361621469501</v>
       </c>
     </row>
     <row r="57">
@@ -2336,29 +2498,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99992999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F57">
-        <v>127430097.560083</v>
+        <v>50464725.283307098</v>
       </c>
       <c r="G57">
-        <v>0.0093557547855499194</v>
+        <v>0.152650085048913</v>
       </c>
       <c r="H57">
-        <v>182039096.39220601</v>
+        <v>79784426.886821404</v>
       </c>
       <c r="I57">
-        <v>131161905.449737</v>
+        <v>50556484.795076497</v>
       </c>
       <c r="J57">
-        <v>1.42854082259785</v>
+        <v>1.58099398022905</v>
       </c>
     </row>
     <row r="58">
@@ -2366,29 +2528,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99994000000000005</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F58">
-        <v>135109541.848068</v>
+        <v>50623645.008613802</v>
       </c>
       <c r="G58">
-        <v>0.0083927602193846103</v>
+        <v>0.13883168534920001</v>
       </c>
       <c r="H58">
-        <v>190518628.215904</v>
+        <v>84655750.568778902</v>
       </c>
       <c r="I58">
-        <v>139570298.74282801</v>
+        <v>51852279.098381899</v>
       </c>
       <c r="J58">
-        <v>1.4101049090236999</v>
+        <v>1.6722571153138901</v>
       </c>
     </row>
     <row r="59">
@@ -2396,29 +2558,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995000000000001</v>
+        <v>0.995</v>
       </c>
       <c r="F59">
-        <v>144337760.24247399</v>
+        <v>56168226.564016499</v>
       </c>
       <c r="G59">
-        <v>0.0073680309824308999</v>
+        <v>0.124659111428627</v>
       </c>
       <c r="H59">
-        <v>200708294.11058801</v>
+        <v>91216444.862858295</v>
       </c>
       <c r="I59">
-        <v>149859989.03011101</v>
+        <v>62482249.742577799</v>
       </c>
       <c r="J59">
-        <v>1.39054599277013</v>
+        <v>1.6239865568640699</v>
       </c>
     </row>
     <row r="60">
@@ -2426,29 +2588,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99995999999999996</v>
+        <v>0.996</v>
       </c>
       <c r="F60">
-        <v>155850386.59144399</v>
+        <v>66519774.125582203</v>
       </c>
       <c r="G60">
-        <v>0.0062677545368672099</v>
+        <v>0.107581090585605</v>
       </c>
       <c r="H60">
-        <v>213420370.38063499</v>
+        <v>98399993.642928496</v>
       </c>
       <c r="I60">
-        <v>163054331.02784401</v>
+        <v>66823865.602166899</v>
       </c>
       <c r="J60">
-        <v>1.36939262743126</v>
+        <v>1.4792592869777299</v>
       </c>
     </row>
     <row r="61">
@@ -2456,29 +2618,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997000000000003</v>
+        <v>0.997</v>
       </c>
       <c r="F61">
-        <v>171054967.89990699</v>
+        <v>67127957.078751907</v>
       </c>
       <c r="G61">
-        <v>0.0050706048444231202</v>
+        <v>0.089316393423341495</v>
       </c>
       <c r="H61">
-        <v>230209050.16477501</v>
+        <v>108925369.656516</v>
       </c>
       <c r="I61">
-        <v>181309794.50743699</v>
+        <v>74016384.462715402</v>
       </c>
       <c r="J61">
-        <v>1.3458191421805501</v>
+        <v>1.62265283194495</v>
       </c>
     </row>
     <row r="62">
@@ -2486,29 +2648,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99997999999999998</v>
+        <v>0.998</v>
       </c>
       <c r="F62">
-        <v>193197647.3163</v>
+        <v>87555121.447201699</v>
       </c>
       <c r="G62">
-        <v>0.0037394230023594902</v>
+        <v>0.069085794144551294</v>
       </c>
       <c r="H62">
-        <v>254658677.99357799</v>
+        <v>126379862.253416</v>
       </c>
       <c r="I62">
-        <v>210633150.757613</v>
+        <v>97113372.873022795</v>
       </c>
       <c r="J62">
-        <v>1.31812515075121</v>
+        <v>1.4434319793574399</v>
       </c>
     </row>
     <row r="63">
@@ -2516,29 +2678,569 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="D63"/>
       <c r="E63">
+        <v>0.999</v>
+      </c>
+      <c r="F63">
+        <v>109833160.73399</v>
+      </c>
+      <c r="G63">
+        <v>0.042542188354193801</v>
+      </c>
+      <c r="H63">
+        <v>155646351.633809</v>
+      </c>
+      <c r="I63">
+        <v>111653153.60479499</v>
+      </c>
+      <c r="J63">
+        <v>1.4171162023714901</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F64">
+        <v>113554072.393218</v>
+      </c>
+      <c r="G64">
+        <v>0.039490417823670999</v>
+      </c>
+      <c r="H64">
+        <v>160534484.74814299</v>
+      </c>
+      <c r="I64">
+        <v>115638123.793773</v>
+      </c>
+      <c r="J64">
+        <v>1.4137272346538099</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F65">
+        <v>117826035.457249</v>
+      </c>
+      <c r="G65">
+        <v>0.036329727713224999</v>
+      </c>
+      <c r="H65">
+        <v>166146529.86743799</v>
+      </c>
+      <c r="I65">
+        <v>120252621.988967</v>
+      </c>
+      <c r="J65">
+        <v>1.41010031630676</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F66">
+        <v>122816756.94884799</v>
+      </c>
+      <c r="G66">
+        <v>0.033042911388242599</v>
+      </c>
+      <c r="H66">
+        <v>172702802.421505</v>
+      </c>
+      <c r="I66">
+        <v>125703296.324534</v>
+      </c>
+      <c r="J66">
+        <v>1.4061827287414399</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F67">
+        <v>128779531.35657001</v>
+      </c>
+      <c r="G67">
+        <v>0.029607113984161802</v>
+      </c>
+      <c r="H67">
+        <v>180536053.43766499</v>
+      </c>
+      <c r="I67">
+        <v>132312287.36777</v>
+      </c>
+      <c r="J67">
+        <v>1.4019002207562801</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F68">
+        <v>136121245.22664201</v>
+      </c>
+      <c r="G68">
+        <v>0.0259906756984663</v>
+      </c>
+      <c r="H68">
+        <v>190180806.65164199</v>
+      </c>
+      <c r="I68">
+        <v>140619968.90640199</v>
+      </c>
+      <c r="J68">
+        <v>1.3971427188679499</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F69">
+        <v>145552836.73069501</v>
+      </c>
+      <c r="G69">
+        <v>0.022147166910254701</v>
+      </c>
+      <c r="H69">
+        <v>202571016.08794901</v>
+      </c>
+      <c r="I69">
+        <v>151632106.26464501</v>
+      </c>
+      <c r="J69">
+        <v>1.3917352669859</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" t="s">
+        <v>231</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F70">
+        <v>158477960.97457001</v>
+      </c>
+      <c r="G70">
+        <v>0.0180026678214248</v>
+      </c>
+      <c r="H70">
+        <v>219550652.69573501</v>
+      </c>
+      <c r="I70">
+        <v>167548144.53184199</v>
+      </c>
+      <c r="J70">
+        <v>1.3853702517725099</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F71">
+        <v>178270459.91130501</v>
+      </c>
+      <c r="G71">
+        <v>0.0134231420900165</v>
+      </c>
+      <c r="H71">
+        <v>245551906.77768299</v>
+      </c>
+      <c r="I71">
+        <v>194834459.36340001</v>
+      </c>
+      <c r="J71">
+        <v>1.37741220222269</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" t="s">
+        <v>233</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F72">
+        <v>216877252.52436</v>
+      </c>
+      <c r="G72">
+        <v>0.0080978105412082002</v>
+      </c>
+      <c r="H72">
+        <v>296269354.19196498</v>
+      </c>
+      <c r="I72">
+        <v>220031214.433465</v>
+      </c>
+      <c r="J72">
+        <v>1.3660692891647901</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F73">
+        <v>223325417.14555401</v>
+      </c>
+      <c r="G73">
+        <v>0.0074964081138508996</v>
+      </c>
+      <c r="H73">
+        <v>304740258.60953498</v>
+      </c>
+      <c r="I73">
+        <v>226936980.04747501</v>
+      </c>
+      <c r="J73">
+        <v>1.3645569882039801</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F74">
+        <v>230728527.892405</v>
+      </c>
+      <c r="G74">
+        <v>0.0068761304363900303</v>
+      </c>
+      <c r="H74">
+        <v>314465668.42973799</v>
+      </c>
+      <c r="I74">
+        <v>234933688.040573</v>
+      </c>
+      <c r="J74">
+        <v>1.3629249547172599</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F75">
+        <v>239377213.13514501</v>
+      </c>
+      <c r="G75">
+        <v>0.0062339956800966396</v>
+      </c>
+      <c r="H75">
+        <v>325827379.91397601</v>
+      </c>
+      <c r="I75">
+        <v>244379449.89447999</v>
+      </c>
+      <c r="J75">
+        <v>1.36114618282411</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F76">
+        <v>249710420.29008099</v>
+      </c>
+      <c r="G76">
+        <v>0.0055660432046208703</v>
+      </c>
+      <c r="H76">
+        <v>339402034.91715199</v>
+      </c>
+      <c r="I76">
+        <v>255832520.03689599</v>
+      </c>
+      <c r="J76">
+        <v>1.35918250637229</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F77">
+        <v>262433264.57450199</v>
+      </c>
+      <c r="G77">
+        <v>0.0048667865153143204</v>
+      </c>
+      <c r="H77">
+        <v>356115937.893309</v>
+      </c>
+      <c r="I77">
+        <v>270229340.78622198</v>
+      </c>
+      <c r="J77">
+        <v>1.3569771289119901</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F78">
+        <v>278777768.34877402</v>
+      </c>
+      <c r="G78">
+        <v>0.0041281795776103702</v>
+      </c>
+      <c r="H78">
+        <v>377587587.16996598</v>
+      </c>
+      <c r="I78">
+        <v>289312856.06960797</v>
+      </c>
+      <c r="J78">
+        <v>1.3544393780266299</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F79">
+        <v>301176399.78817803</v>
+      </c>
+      <c r="G79">
+        <v>0.00333741243871181</v>
+      </c>
+      <c r="H79">
+        <v>407012497.53653598</v>
+      </c>
+      <c r="I79">
+        <v>316894600.61593598</v>
+      </c>
+      <c r="J79">
+        <v>1.3514090009137301</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F80">
+        <v>335475868.06323701</v>
+      </c>
+      <c r="G80">
+        <v>0.0024712572319622399</v>
+      </c>
+      <c r="H80">
+        <v>452071445.99707198</v>
+      </c>
+      <c r="I80">
+        <v>364180498.81881797</v>
+      </c>
+      <c r="J80">
+        <v>1.3475528019555101</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F63">
-        <v>233069139.12545201</v>
-      </c>
-      <c r="G63">
-        <v>0.00219294821657201</v>
-      </c>
-      <c r="H63">
-        <v>298684205.22905898</v>
-      </c>
-      <c r="I63">
-        <v>298684205.22905898</v>
-      </c>
-      <c r="J63">
-        <v>1.28152618724991</v>
+      <c r="F81">
+        <v>402379620.97734201</v>
+      </c>
+      <c r="G81">
+        <v>0.0014758573904000501</v>
+      </c>
+      <c r="H81">
+        <v>539962393.17438102</v>
+      </c>
+      <c r="I81">
+        <v>539962393.17436695</v>
+      </c>
+      <c r="J81">
+        <v>1.34192281374207</v>
       </c>
     </row>
   </sheetData>
